--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -540,10 +540,10 @@
         <v>7.522864</v>
       </c>
       <c r="I2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J2">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N2">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O2">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P2">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q2">
-        <v>35.10653817890133</v>
+        <v>21.75780530191467</v>
       </c>
       <c r="R2">
-        <v>315.958843610112</v>
+        <v>195.820247717232</v>
       </c>
       <c r="S2">
-        <v>0.2004902662330376</v>
+        <v>0.1232565313002719</v>
       </c>
       <c r="T2">
-        <v>0.2004902662330376</v>
+        <v>0.1232565313002719</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>7.522864</v>
       </c>
       <c r="I3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J3">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N3">
         <v>113.242516</v>
       </c>
       <c r="O3">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P3">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q3">
-        <v>94.65644965398043</v>
+        <v>94.65644965398045</v>
       </c>
       <c r="R3">
-        <v>851.908046885824</v>
+        <v>851.9080468858241</v>
       </c>
       <c r="S3">
-        <v>0.5405744279054566</v>
+        <v>0.5362225411825779</v>
       </c>
       <c r="T3">
-        <v>0.5405744279054567</v>
+        <v>0.5362225411825778</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>7.522864</v>
       </c>
       <c r="I4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="J4">
-        <v>0.9939780200440224</v>
+        <v>0.9300694554254023</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N4">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P4">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q4">
-        <v>44.28599701461333</v>
+        <v>47.76584905096711</v>
       </c>
       <c r="R4">
-        <v>398.57397313152</v>
+        <v>429.892641458704</v>
       </c>
       <c r="S4">
-        <v>0.2529133259055281</v>
+        <v>0.2705903829425525</v>
       </c>
       <c r="T4">
-        <v>0.2529133259055281</v>
+        <v>0.2705903829425525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H5">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I5">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J5">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.999936</v>
+        <v>8.676671000000001</v>
       </c>
       <c r="N5">
-        <v>41.999808</v>
+        <v>26.030013</v>
       </c>
       <c r="O5">
-        <v>0.2017049292741484</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="P5">
-        <v>0.2017049292741485</v>
+        <v>0.1325240072999665</v>
       </c>
       <c r="Q5">
-        <v>0.2126916943573333</v>
+        <v>1.635937149247667</v>
       </c>
       <c r="R5">
-        <v>1.914225249216</v>
+        <v>14.723434343229</v>
       </c>
       <c r="S5">
-        <v>0.001214663041110826</v>
+        <v>0.009267475999694621</v>
       </c>
       <c r="T5">
-        <v>0.001214663041110826</v>
+        <v>0.009267475999694618</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H6">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I6">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J6">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.74750533333333</v>
+        <v>37.74750533333334</v>
       </c>
       <c r="N6">
         <v>113.242516</v>
       </c>
       <c r="O6">
-        <v>0.5438494785644405</v>
+        <v>0.5765403197090441</v>
       </c>
       <c r="P6">
-        <v>0.5438494785644407</v>
+        <v>0.576540319709044</v>
       </c>
       <c r="Q6">
-        <v>0.5734726835257777</v>
+        <v>7.117078228069778</v>
       </c>
       <c r="R6">
-        <v>5.161254151732</v>
+        <v>64.05370405262799</v>
       </c>
       <c r="S6">
-        <v>0.003275050658983998</v>
+        <v>0.04031777852646613</v>
       </c>
       <c r="T6">
-        <v>0.003275050658983998</v>
+        <v>0.04031777852646611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01519233333333333</v>
+        <v>0.1885443333333333</v>
       </c>
       <c r="H7">
-        <v>0.045577</v>
+        <v>0.5656329999999999</v>
       </c>
       <c r="I7">
-        <v>0.006021979955977724</v>
+        <v>0.06993054457459773</v>
       </c>
       <c r="J7">
-        <v>0.006021979955977723</v>
+        <v>0.06993054457459771</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.66056</v>
+        <v>19.04827033333333</v>
       </c>
       <c r="N7">
-        <v>52.98168</v>
+        <v>57.144811</v>
       </c>
       <c r="O7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="P7">
-        <v>0.2544455921614109</v>
+        <v>0.2909356729909895</v>
       </c>
       <c r="Q7">
-        <v>0.2683051143733333</v>
+        <v>3.591443431151444</v>
       </c>
       <c r="R7">
-        <v>2.41474602936</v>
+        <v>32.322990880363</v>
       </c>
       <c r="S7">
-        <v>0.0015322662558829</v>
+        <v>0.02034529004843698</v>
       </c>
       <c r="T7">
-        <v>0.001532266255882899</v>
+        <v>0.02034529004843698</v>
       </c>
     </row>
   </sheetData>
